--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Small_140x420mm.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Small_140x420mm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\附薦\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D1995F-01D4-4DE4-9463-4B5F8D007BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA451C27-5E62-4EC6-9859-98331237AA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,21 +436,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,43 +797,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="3.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="4.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="4" style="4" customWidth="1"/>
-    <col min="7" max="9" width="4.25" style="2" customWidth="1"/>
+    <col min="7" max="9" width="4.25" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="5" customWidth="1"/>
     <col min="11" max="11" width="4" style="6" customWidth="1"/>
-    <col min="12" max="14" width="4.25" style="2" customWidth="1"/>
+    <col min="12" max="14" width="4.25" style="6" customWidth="1"/>
     <col min="15" max="15" width="4" style="5" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" customWidth="1"/>
-    <col min="17" max="19" width="4.25" style="2" customWidth="1"/>
+    <col min="17" max="19" width="4.25" style="6" customWidth="1"/>
     <col min="20" max="20" width="4" style="5" customWidth="1"/>
     <col min="21" max="21" width="4" style="4" customWidth="1"/>
-    <col min="22" max="24" width="4.25" style="2" customWidth="1"/>
+    <col min="22" max="24" width="4.25" style="6" customWidth="1"/>
     <col min="25" max="25" width="4" style="5" customWidth="1"/>
     <col min="26" max="26" width="4" style="4" customWidth="1"/>
-    <col min="27" max="29" width="4.25" style="7" customWidth="1"/>
+    <col min="27" max="29" width="4.25" style="25" customWidth="1"/>
     <col min="30" max="30" width="4" style="7" customWidth="1"/>
     <col min="31" max="31" width="4" style="2" customWidth="1"/>
-    <col min="32" max="34" width="4.25" style="7" customWidth="1"/>
+    <col min="32" max="34" width="4.25" style="25" customWidth="1"/>
     <col min="35" max="35" width="4" style="7" customWidth="1"/>
     <col min="36" max="36" width="4" style="2" customWidth="1"/>
-    <col min="37" max="39" width="4.25" style="7" customWidth="1"/>
+    <col min="37" max="39" width="4.25" style="25" customWidth="1"/>
     <col min="40" max="40" width="4" style="7" customWidth="1"/>
     <col min="41" max="41" width="4" style="2" customWidth="1"/>
-    <col min="42" max="44" width="4.25" style="7" customWidth="1"/>
+    <col min="42" max="44" width="4.25" style="25" customWidth="1"/>
     <col min="45" max="45" width="4" style="7" customWidth="1"/>
     <col min="46" max="46" width="4" style="2" customWidth="1"/>
-    <col min="47" max="49" width="4.25" style="7" customWidth="1"/>
+    <col min="47" max="49" width="4.25" style="25" customWidth="1"/>
     <col min="50" max="50" width="4" style="7" customWidth="1"/>
     <col min="51" max="57" width="4.5" style="7" customWidth="1"/>
     <col min="58" max="16384" width="9" style="7"/>
@@ -839,9 +844,9 @@
       <c r="E2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1139,7 +1144,7 @@
       <c r="AX6" s="20"/>
     </row>
     <row r="7" spans="1:50" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -1286,6 +1291,9 @@
     <mergeCell ref="AH3:AH8"/>
     <mergeCell ref="AM3:AM8"/>
     <mergeCell ref="AD2:AD7"/>
+    <mergeCell ref="AU3:AU8"/>
+    <mergeCell ref="AV3:AV8"/>
+    <mergeCell ref="AW3:AW8"/>
     <mergeCell ref="AI2:AI7"/>
     <mergeCell ref="AN2:AN7"/>
     <mergeCell ref="AS2:AS7"/>
@@ -1294,12 +1302,9 @@
     <mergeCell ref="AP3:AP8"/>
     <mergeCell ref="AQ3:AQ8"/>
     <mergeCell ref="AR3:AR8"/>
-    <mergeCell ref="AU3:AU8"/>
-    <mergeCell ref="AV3:AV8"/>
-    <mergeCell ref="AW3:AW8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="0" top="0.98425196850393704" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="229" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Small_140x420mm.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Small_140x420mm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fei\Desktop\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C9A080-BF93-4D49-884D-3121202819EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D26AD3-15ED-487F-8A89-3200EFAD37E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="細10蓮" sheetId="48" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>{{ASerial}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,119 +109,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{ADece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ADece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{BDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{BDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{BDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{CDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{CDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{CDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{DDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{DDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{DDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{EDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{EDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{EDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{FDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{FDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{FDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{GDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{GDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{GDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{HDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{HDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{HDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{IDece1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{IDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{IDece3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{JDece1}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{JDece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{JDece3}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,51 +262,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,9 +317,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -446,9 +357,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,26 +392,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,26 +427,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -728,404 +605,334 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2:AW3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="3.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="4.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="4.125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="3.75" style="6" customWidth="1"/>
-    <col min="10" max="10" width="4.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.75" style="6" customWidth="1"/>
-    <col min="13" max="13" width="4.125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="3.75" style="6" customWidth="1"/>
-    <col min="15" max="15" width="4.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="3.75" style="6" customWidth="1"/>
-    <col min="18" max="18" width="4.125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="3.75" style="6" customWidth="1"/>
-    <col min="20" max="20" width="4.375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="4.875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="3.75" style="6" customWidth="1"/>
-    <col min="23" max="23" width="4.125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="3.75" style="6" customWidth="1"/>
-    <col min="25" max="25" width="4.375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="4.875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="3.75" style="6" customWidth="1"/>
-    <col min="28" max="28" width="4.125" style="6" customWidth="1"/>
-    <col min="29" max="29" width="3.75" style="6" customWidth="1"/>
-    <col min="30" max="30" width="4.375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="4.875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="3.75" style="6" customWidth="1"/>
-    <col min="33" max="33" width="4.125" style="6" customWidth="1"/>
-    <col min="34" max="34" width="3.75" style="6" customWidth="1"/>
-    <col min="35" max="35" width="4.375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="4.875" style="2" customWidth="1"/>
-    <col min="37" max="37" width="3.75" style="6" customWidth="1"/>
-    <col min="38" max="38" width="4.125" style="6" customWidth="1"/>
-    <col min="39" max="39" width="3.75" style="6" customWidth="1"/>
-    <col min="40" max="40" width="4.375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="4.875" style="2" customWidth="1"/>
-    <col min="42" max="42" width="3.75" style="6" customWidth="1"/>
-    <col min="43" max="43" width="4.125" style="6" customWidth="1"/>
-    <col min="44" max="44" width="3.75" style="6" customWidth="1"/>
-    <col min="45" max="45" width="4.375" style="1" customWidth="1"/>
-    <col min="46" max="46" width="4.875" style="2" customWidth="1"/>
-    <col min="47" max="47" width="3.75" style="6" customWidth="1"/>
-    <col min="48" max="48" width="4.125" style="6" customWidth="1"/>
-    <col min="49" max="49" width="3.75" style="6" customWidth="1"/>
-    <col min="50" max="50" width="2.875" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="3.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="3.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="3.77734375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.77734375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.88671875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="3.77734375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="3.77734375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="4.88671875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="3.77734375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="4.109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="3.77734375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="4.33203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="4.88671875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="3.77734375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="4.109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="3.77734375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="4.33203125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="4.88671875" style="1" customWidth="1"/>
+    <col min="42" max="42" width="3.77734375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="4.109375" style="1" customWidth="1"/>
+    <col min="44" max="44" width="3.77734375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="4.33203125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="4.88671875" style="1" customWidth="1"/>
+    <col min="47" max="47" width="3.77734375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="4.109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="3.77734375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="2.88671875" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="7"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="7"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="7"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="7"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="7"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="7"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="7"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="7"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="7"/>
+    <row r="1" spans="1:50" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="4"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="4"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="4"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="4"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="4"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="4"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="4"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="4"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="4"/>
     </row>
-    <row r="2" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9" t="s">
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9" t="s">
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX2" s="11" t="s">
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:50" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="10" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="10" t="s">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="10" t="s">
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="10" t="s">
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="10" t="s">
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="10" t="s">
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="10" t="s">
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="11"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="9"/>
     </row>
-    <row r="4" spans="1:50" s="3" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="C4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="10"/>
-      <c r="H4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="10"/>
-      <c r="M4" s="4"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="10"/>
-      <c r="R4" s="4"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="10"/>
-      <c r="W4" s="4"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="10"/>
-      <c r="AB4" s="4"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="10"/>
-      <c r="AG4" s="4"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="10"/>
-      <c r="AL4" s="4"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="10"/>
-      <c r="AQ4" s="4"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="10"/>
-      <c r="AV4" s="4"/>
-      <c r="AX4" s="5"/>
+    <row r="4" spans="1:50" s="2" customFormat="1" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="C4" s="3"/>
+      <c r="F4" s="11"/>
+      <c r="H4" s="3"/>
+      <c r="K4" s="11"/>
+      <c r="M4" s="3"/>
+      <c r="P4" s="11"/>
+      <c r="R4" s="3"/>
+      <c r="U4" s="11"/>
+      <c r="W4" s="3"/>
+      <c r="Z4" s="11"/>
+      <c r="AB4" s="3"/>
+      <c r="AE4" s="11"/>
+      <c r="AG4" s="3"/>
+      <c r="AJ4" s="11"/>
+      <c r="AL4" s="3"/>
+      <c r="AO4" s="11"/>
+      <c r="AQ4" s="3"/>
+      <c r="AT4" s="11"/>
+      <c r="AV4" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
+  <mergeCells count="40">
+    <mergeCell ref="AA2:AC3"/>
+    <mergeCell ref="AF2:AH3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AP2:AR3"/>
+    <mergeCell ref="AU2:AW3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="Q2:S3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AT3:AT4"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AU1:AW1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Small_140x420mm.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Small_140x420mm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fei\Desktop\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D26AD3-15ED-487F-8A89-3200EFAD37E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE6CA10-8515-4B88-B992-3D6CC6316A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="細10蓮" sheetId="48" r:id="rId1"/>
@@ -262,41 +262,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
@@ -317,9 +326,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -357,9 +366,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,9 +401,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,9 +453,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -605,291 +648,301 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AU2" sqref="AU2:AW3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3.77734375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.77734375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="4.88671875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="3.77734375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.77734375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="4.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="3.77734375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="3.77734375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="4.88671875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="3.77734375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="4.109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="3.77734375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="4.33203125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="4.88671875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="3.77734375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="4.109375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="3.77734375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="4.33203125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="4.88671875" style="1" customWidth="1"/>
-    <col min="42" max="42" width="3.77734375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="4.109375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="3.77734375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="4.33203125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="4.88671875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="3.77734375" style="1" customWidth="1"/>
-    <col min="48" max="48" width="4.109375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="3.77734375" style="1" customWidth="1"/>
-    <col min="50" max="50" width="2.88671875" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="3.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="4.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="3.75" style="6" customWidth="1"/>
+    <col min="10" max="10" width="4.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.75" style="6" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="3.75" style="6" customWidth="1"/>
+    <col min="15" max="15" width="4.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="3.75" style="6" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="3.75" style="6" customWidth="1"/>
+    <col min="20" max="20" width="4.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="4.875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="3.75" style="6" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="3.75" style="6" customWidth="1"/>
+    <col min="25" max="25" width="4.375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="3.75" style="6" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.75" style="6" customWidth="1"/>
+    <col min="30" max="30" width="4.375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="4.875" style="2" customWidth="1"/>
+    <col min="32" max="32" width="3.75" style="6" customWidth="1"/>
+    <col min="33" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="3.75" style="6" customWidth="1"/>
+    <col min="35" max="35" width="4.375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="4.875" style="2" customWidth="1"/>
+    <col min="37" max="37" width="3.75" style="6" customWidth="1"/>
+    <col min="38" max="38" width="4.125" style="6" customWidth="1"/>
+    <col min="39" max="39" width="3.75" style="6" customWidth="1"/>
+    <col min="40" max="40" width="4.375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="4.875" style="2" customWidth="1"/>
+    <col min="42" max="42" width="3.75" style="6" customWidth="1"/>
+    <col min="43" max="43" width="4.125" style="6" customWidth="1"/>
+    <col min="44" max="44" width="3.75" style="6" customWidth="1"/>
+    <col min="45" max="45" width="4.375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="4.875" style="2" customWidth="1"/>
+    <col min="47" max="47" width="3.75" style="6" customWidth="1"/>
+    <col min="48" max="48" width="4.125" style="6" customWidth="1"/>
+    <col min="49" max="49" width="3.75" style="6" customWidth="1"/>
+    <col min="50" max="50" width="2.875" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="4"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="4"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="4"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="4"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="4"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="4"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="4"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="4"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="4"/>
+    <row r="1" spans="1:50" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="7"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="7"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="7"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="7"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="7"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="7"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="7"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="7"/>
     </row>
-    <row r="2" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="9" t="s">
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="8" t="s">
+      <c r="U2" s="8"/>
+      <c r="V2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="9" t="s">
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="8" t="s">
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="9" t="s">
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="8" t="s">
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="9" t="s">
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="8" t="s">
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="9" t="s">
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="8" t="s">
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="9" t="s">
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="8" t="s">
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="9" t="s">
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:50" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="11" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="11" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="11" t="s">
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="11" t="s">
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="11" t="s">
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="11" t="s">
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="11" t="s">
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="9"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="12"/>
     </row>
-    <row r="4" spans="1:50" s="2" customFormat="1" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="C4" s="3"/>
-      <c r="F4" s="11"/>
-      <c r="H4" s="3"/>
-      <c r="K4" s="11"/>
-      <c r="M4" s="3"/>
-      <c r="P4" s="11"/>
-      <c r="R4" s="3"/>
-      <c r="U4" s="11"/>
-      <c r="W4" s="3"/>
-      <c r="Z4" s="11"/>
-      <c r="AB4" s="3"/>
-      <c r="AE4" s="11"/>
-      <c r="AG4" s="3"/>
-      <c r="AJ4" s="11"/>
-      <c r="AL4" s="3"/>
-      <c r="AO4" s="11"/>
-      <c r="AQ4" s="3"/>
-      <c r="AT4" s="11"/>
-      <c r="AV4" s="3"/>
+    <row r="4" spans="1:50" s="3" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="14"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="14"/>
+      <c r="M4" s="4"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="14"/>
+      <c r="R4" s="4"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="14"/>
+      <c r="W4" s="4"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="14"/>
+      <c r="AB4" s="4"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="14"/>
+      <c r="AG4" s="4"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="14"/>
+      <c r="AL4" s="4"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="14"/>
+      <c r="AQ4" s="4"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="14"/>
+      <c r="AV4" s="4"/>
+      <c r="AX4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="40">

--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Small_140x420mm.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Small_140x420mm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE6CA10-8515-4B88-B992-3D6CC6316A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD92040-D623-4ED4-B17F-9746D052A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,23 +290,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,7 +649,7 @@
   <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2:AW3"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -708,249 +708,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="7"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="7"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="7"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="10"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="13"/>
       <c r="T1" s="7"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="10"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="13"/>
       <c r="Y1" s="7"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="10"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="13"/>
       <c r="AD1" s="7"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="10"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="13"/>
       <c r="AI1" s="7"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="10"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="13"/>
       <c r="AN1" s="7"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="10"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="13"/>
       <c r="AS1" s="7"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="10"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="13"/>
       <c r="AX1" s="7"/>
     </row>
     <row r="2" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="8"/>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="P2" s="8"/>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="12" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="U2" s="8"/>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="12" t="s">
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="8"/>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="12" t="s">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="AE2" s="8"/>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="12" t="s">
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="AJ2" s="8"/>
-      <c r="AK2" s="11" t="s">
+      <c r="AK2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="12" t="s">
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="AO2" s="8"/>
-      <c r="AP2" s="11" t="s">
+      <c r="AP2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="12" t="s">
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="AT2" s="8"/>
-      <c r="AU2" s="11" t="s">
+      <c r="AU2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="12" t="s">
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="14" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="14" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="14" t="s">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="14" t="s">
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="14" t="s">
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="14" t="s">
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="14" t="s">
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="12"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="11"/>
     </row>
     <row r="4" spans="1:50" s="3" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="C4" s="4"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="10"/>
       <c r="H4" s="4"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="10"/>
       <c r="M4" s="4"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="14"/>
+      <c r="P4" s="10"/>
       <c r="R4" s="4"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="14"/>
+      <c r="U4" s="10"/>
       <c r="W4" s="4"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="14"/>
+      <c r="Z4" s="10"/>
       <c r="AB4" s="4"/>
       <c r="AD4" s="5"/>
-      <c r="AE4" s="14"/>
+      <c r="AE4" s="10"/>
       <c r="AG4" s="4"/>
       <c r="AI4" s="5"/>
-      <c r="AJ4" s="14"/>
+      <c r="AJ4" s="10"/>
       <c r="AL4" s="4"/>
       <c r="AN4" s="5"/>
-      <c r="AO4" s="14"/>
+      <c r="AO4" s="10"/>
       <c r="AQ4" s="4"/>
       <c r="AS4" s="5"/>
-      <c r="AT4" s="14"/>
+      <c r="AT4" s="10"/>
       <c r="AV4" s="4"/>
       <c r="AX4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AA2:AC3"/>
-    <mergeCell ref="AF2:AH3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AP2:AR3"/>
-    <mergeCell ref="AU2:AW3"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="G2:I3"/>
     <mergeCell ref="L2:N3"/>
@@ -959,33 +979,13 @@
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="V1:X1"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AA2:AC3"/>
+    <mergeCell ref="AF2:AH3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AP2:AR3"/>
+    <mergeCell ref="AU2:AW3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Small_140x420mm.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Small_140x420mm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD92040-D623-4ED4-B17F-9746D052A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D92BE8-EEA2-4F6D-BB48-2511C6808E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,15 +290,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,6 +298,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX4"/>
+  <dimension ref="A1:AX20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -708,244 +708,1136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="7"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="7"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
       <c r="O1" s="7"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="10"/>
       <c r="T1" s="7"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="13"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="10"/>
       <c r="Y1" s="7"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="13"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="10"/>
       <c r="AD1" s="7"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="13"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="10"/>
       <c r="AI1" s="7"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="13"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="10"/>
       <c r="AN1" s="7"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="13"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="10"/>
       <c r="AS1" s="7"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="13"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="10"/>
       <c r="AX1" s="7"/>
     </row>
     <row r="2" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="11" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="P2" s="8"/>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="11" t="s">
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="U2" s="8"/>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="11" t="s">
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="Z2" s="8"/>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="11" t="s">
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="AE2" s="8"/>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="11" t="s">
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="AJ2" s="8"/>
-      <c r="AK2" s="9" t="s">
+      <c r="AK2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="11" t="s">
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="AO2" s="8"/>
-      <c r="AP2" s="9" t="s">
+      <c r="AP2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="11" t="s">
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="AT2" s="8"/>
-      <c r="AU2" s="9" t="s">
+      <c r="AU2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="11" t="s">
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="10" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="10" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="10" t="s">
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="10" t="s">
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="10" t="s">
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="10" t="s">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="10" t="s">
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="11"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="13"/>
     </row>
     <row r="4" spans="1:50" s="3" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="11"/>
       <c r="C4" s="4"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="12"/>
       <c r="H4" s="4"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="10"/>
+      <c r="K4" s="12"/>
       <c r="M4" s="4"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="10"/>
+      <c r="P4" s="12"/>
       <c r="R4" s="4"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="10"/>
+      <c r="U4" s="12"/>
       <c r="W4" s="4"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="10"/>
+      <c r="Z4" s="12"/>
       <c r="AB4" s="4"/>
       <c r="AD4" s="5"/>
-      <c r="AE4" s="10"/>
+      <c r="AE4" s="12"/>
       <c r="AG4" s="4"/>
       <c r="AI4" s="5"/>
-      <c r="AJ4" s="10"/>
+      <c r="AJ4" s="12"/>
       <c r="AL4" s="4"/>
       <c r="AN4" s="5"/>
-      <c r="AO4" s="10"/>
+      <c r="AO4" s="12"/>
       <c r="AQ4" s="4"/>
       <c r="AS4" s="5"/>
-      <c r="AT4" s="10"/>
+      <c r="AT4" s="12"/>
       <c r="AV4" s="4"/>
       <c r="AX4" s="5"/>
     </row>
+    <row r="5" spans="1:50" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="7"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="7"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="7"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="7"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="7"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="7"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="7"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="7"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="7"/>
+    </row>
+    <row r="6" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="13"/>
+    </row>
+    <row r="7" spans="1:50" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="13"/>
+    </row>
+    <row r="8" spans="1:50" s="3" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="12"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="12"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="12"/>
+      <c r="R8" s="4"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="12"/>
+      <c r="W8" s="4"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="12"/>
+      <c r="AB8" s="4"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="12"/>
+      <c r="AG8" s="4"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="12"/>
+      <c r="AL8" s="4"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="12"/>
+      <c r="AQ8" s="4"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="12"/>
+      <c r="AV8" s="4"/>
+      <c r="AX8" s="5"/>
+    </row>
+    <row r="9" spans="1:50" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="7"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="7"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="7"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="7"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="7"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="7"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="7"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="7"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="7"/>
+    </row>
+    <row r="10" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="13"/>
+    </row>
+    <row r="11" spans="1:50" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="13"/>
+    </row>
+    <row r="12" spans="1:50" s="3" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12"/>
+      <c r="H12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="12"/>
+      <c r="M12" s="4"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="12"/>
+      <c r="R12" s="4"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="12"/>
+      <c r="W12" s="4"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="12"/>
+      <c r="AB12" s="4"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="12"/>
+      <c r="AG12" s="4"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="12"/>
+      <c r="AL12" s="4"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="12"/>
+      <c r="AQ12" s="4"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="12"/>
+      <c r="AV12" s="4"/>
+      <c r="AX12" s="5"/>
+    </row>
+    <row r="13" spans="1:50" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="7"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="7"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="7"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="7"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="7"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="7"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="7"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="7"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="7"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="7"/>
+    </row>
+    <row r="14" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="13"/>
+    </row>
+    <row r="15" spans="1:50" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="13"/>
+    </row>
+    <row r="16" spans="1:50" s="3" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="C16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="12"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="12"/>
+      <c r="M16" s="4"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="12"/>
+      <c r="R16" s="4"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="12"/>
+      <c r="W16" s="4"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="12"/>
+      <c r="AB16" s="4"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="12"/>
+      <c r="AG16" s="4"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="12"/>
+      <c r="AL16" s="4"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="12"/>
+      <c r="AQ16" s="4"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="12"/>
+      <c r="AV16" s="4"/>
+      <c r="AX16" s="5"/>
+    </row>
+    <row r="17" spans="1:50" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="7"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="7"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="7"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="7"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="7"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="7"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="7"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="7"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="7"/>
+    </row>
+    <row r="18" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="13"/>
+    </row>
+    <row r="19" spans="1:50" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="13"/>
+    </row>
+    <row r="20" spans="1:50" s="3" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="12"/>
+      <c r="H20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="12"/>
+      <c r="M20" s="4"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="12"/>
+      <c r="R20" s="4"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="12"/>
+      <c r="W20" s="4"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="12"/>
+      <c r="AB20" s="4"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="12"/>
+      <c r="AG20" s="4"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="12"/>
+      <c r="AL20" s="4"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="12"/>
+      <c r="AQ20" s="4"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="12"/>
+      <c r="AV20" s="4"/>
+      <c r="AX20" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="200">
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AO19:AO20"/>
+    <mergeCell ref="AT19:AT20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="AN18:AN19"/>
+    <mergeCell ref="AP18:AR19"/>
+    <mergeCell ref="AS18:AS19"/>
+    <mergeCell ref="AU18:AW19"/>
+    <mergeCell ref="AX18:AX19"/>
+    <mergeCell ref="AA18:AC19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AF18:AH19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AK18:AM19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="Q18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="V18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="L18:N19"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="AP17:AR17"/>
+    <mergeCell ref="AU17:AW17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AJ15:AJ16"/>
+    <mergeCell ref="AO15:AO16"/>
+    <mergeCell ref="AT15:AT16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AP14:AR15"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AU14:AW15"/>
+    <mergeCell ref="AX14:AX15"/>
+    <mergeCell ref="AA14:AC15"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AF14:AH15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AK14:AM15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="Q14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="V14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:N15"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AU13:AW13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AO11:AO12"/>
+    <mergeCell ref="AT11:AT12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="AN10:AN11"/>
+    <mergeCell ref="AP10:AR11"/>
+    <mergeCell ref="AS10:AS11"/>
+    <mergeCell ref="AU10:AW11"/>
+    <mergeCell ref="AX10:AX11"/>
+    <mergeCell ref="AA10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AF10:AH11"/>
+    <mergeCell ref="AI10:AI11"/>
+    <mergeCell ref="AK10:AM11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="Q10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="V10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="L10:N11"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AO7:AO8"/>
+    <mergeCell ref="AT7:AT8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AP6:AR7"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AU6:AW7"/>
+    <mergeCell ref="AX6:AX7"/>
+    <mergeCell ref="AA6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AK6:AM7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="V6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="L6:N7"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AA2:AC3"/>
+    <mergeCell ref="AF2:AH3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AP2:AR3"/>
+    <mergeCell ref="AU2:AW3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="Q2:S3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AO3:AO4"/>
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="A3:A4"/>
@@ -960,32 +1852,8 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AT3:AT4"/>
     <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AO3:AO4"/>
     <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="L2:N3"/>
-    <mergeCell ref="Q2:S3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AA2:AC3"/>
-    <mergeCell ref="AF2:AH3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AP2:AR3"/>
-    <mergeCell ref="AU2:AW3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Small_140x420mm.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_10Seat_Small_140x420mm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E1A5FB-8777-48FE-AD79-C8AB13BF1DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CA74AF-A836-4511-85E4-0EEE87A94DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,8 +175,7 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -184,8 +183,15 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
@@ -193,8 +199,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -204,13 +209,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <u/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
@@ -218,33 +231,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -279,46 +282,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
   </cellXfs>
@@ -662,7 +671,7 @@
   <dimension ref="A1:AX5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -721,307 +730,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="7"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="7"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="7"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="7"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="7"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="7"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="7"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="7"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="13"/>
     </row>
     <row r="2" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="16" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="15" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="15" t="s">
+      <c r="U2" s="15"/>
+      <c r="V2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="16" t="s">
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="15" t="s">
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="16" t="s">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="15" t="s">
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="16" t="s">
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="15" t="s">
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="16" t="s">
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="15" t="s">
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="16" t="s">
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="16" t="s">
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="16"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="14"/>
     </row>
     <row r="4" spans="1:50" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="12" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="12" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="12" t="s">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12" t="s">
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="12" t="s">
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="12" t="s">
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="12" t="s">
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="12" t="s">
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="10"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="18"/>
     </row>
     <row r="5" spans="1:50" s="3" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="7"/>
       <c r="C5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7"/>
       <c r="H5" s="4"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="9"/>
+      <c r="K5" s="7"/>
       <c r="M5" s="4"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="9"/>
+      <c r="P5" s="7"/>
       <c r="R5" s="4"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="9"/>
+      <c r="U5" s="7"/>
       <c r="W5" s="4"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="9"/>
+      <c r="Z5" s="7"/>
       <c r="AB5" s="4"/>
       <c r="AD5" s="5"/>
-      <c r="AE5" s="9"/>
+      <c r="AE5" s="7"/>
       <c r="AG5" s="4"/>
       <c r="AI5" s="5"/>
-      <c r="AJ5" s="9"/>
+      <c r="AJ5" s="7"/>
       <c r="AL5" s="4"/>
       <c r="AN5" s="5"/>
-      <c r="AO5" s="9"/>
+      <c r="AO5" s="7"/>
       <c r="AQ5" s="4"/>
       <c r="AS5" s="5"/>
-      <c r="AT5" s="9"/>
+      <c r="AT5" s="7"/>
       <c r="AV5" s="4"/>
-      <c r="AX5" s="11"/>
+      <c r="AX5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AA2:AC4"/>
-    <mergeCell ref="AF2:AH4"/>
-    <mergeCell ref="AK2:AM4"/>
-    <mergeCell ref="AP2:AR4"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AU2:AW4"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="V1:X1"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="G2:I4"/>
     <mergeCell ref="L2:N4"/>
@@ -1031,16 +1050,17 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AU2:AW4"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AA2:AC4"/>
+    <mergeCell ref="AF2:AH4"/>
+    <mergeCell ref="AK2:AM4"/>
+    <mergeCell ref="AP2:AR4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="1.0416666666666666E-2" top="0" bottom="0" header="0" footer="0"/>
